--- a/public/downloads/TOP Hotel 3-2025.xlsx
+++ b/public/downloads/TOP Hotel 3-2025.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="101">
   <si>
     <t>Název:</t>
   </si>
@@ -309,6 +309,18 @@
   </si>
   <si>
     <t>17.03.2025 18:51:34</t>
+  </si>
+  <si>
+    <t>18.03.2025 06:40:40</t>
+  </si>
+  <si>
+    <t>18.03.2025 06:41:32</t>
+  </si>
+  <si>
+    <t>18.03.2025 18:42:22</t>
+  </si>
+  <si>
+    <t>18.03.2025 18:46:52</t>
   </si>
 </sst>
 </file>
@@ -4678,7 +4690,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
@@ -5629,6 +5641,62 @@
         <v>0.7858101851851852</v>
       </c>
     </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71" s="15">
+        <v>0.27824074074074073</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" s="15">
+        <v>0.2788425925925926</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" s="15">
+        <v>0.7794212962962963</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74" s="15">
+        <v>0.7825462962962962</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/downloads/TOP Hotel 3-2025.xlsx
+++ b/public/downloads/TOP Hotel 3-2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="490" yWindow="1150" windowWidth="30360" windowHeight="18820"/>
+    <workbookView xWindow="-80" yWindow="650" windowWidth="22570" windowHeight="20230"/>
   </bookViews>
   <sheets>
     <sheet sheetId="1" name="List1" state="visible" r:id="rId4"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="109">
   <si>
     <t>Název:</t>
   </si>
@@ -77,18 +77,24 @@
     <t>Poznámka</t>
   </si>
   <si>
+    <t>SEDMIK</t>
+  </si>
+  <si>
+    <t>Jelínek Filip</t>
+  </si>
+  <si>
     <t>Sedmík Václav</t>
   </si>
   <si>
-    <t>Jelínek Filip</t>
-  </si>
-  <si>
     <t>Ouerghi Houssem</t>
   </si>
   <si>
     <t>Bartůněk Stanislav</t>
   </si>
   <si>
+    <t>Bartunek</t>
+  </si>
+  <si>
     <t>Klim Rudolf</t>
   </si>
   <si>
@@ -321,6 +327,24 @@
   </si>
   <si>
     <t>18.03.2025 18:46:52</t>
+  </si>
+  <si>
+    <t>19.03.2025 06:10:19</t>
+  </si>
+  <si>
+    <t>19.03.2025 06:10:49</t>
+  </si>
+  <si>
+    <t>19.03.2025 18:38:20</t>
+  </si>
+  <si>
+    <t>19.03.2025 18:39:11</t>
+  </si>
+  <si>
+    <t>20.03.2025 06:20:49</t>
+  </si>
+  <si>
+    <t>20.03.2025 06:21:08</t>
   </si>
 </sst>
 </file>
@@ -747,7 +771,7 @@
   <dimension ref="B1:U109"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="O76" sqref="O76"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.35" customHeight="1"/>
@@ -985,7 +1009,7 @@
     </row>
     <row r="7" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="9">
         <v>45718</v>
@@ -1099,7 +1123,7 @@
     </row>
     <row r="9" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="9">
         <v>45719</v>
@@ -1156,7 +1180,7 @@
     </row>
     <row r="10" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="9">
         <v>45719</v>
@@ -1213,7 +1237,7 @@
     </row>
     <row r="11" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="9">
         <v>45720</v>
@@ -1327,7 +1351,7 @@
     </row>
     <row r="13" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C13" s="9">
         <v>45721</v>
@@ -1441,7 +1465,7 @@
     </row>
     <row r="15" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" s="9">
         <v>45722</v>
@@ -1555,7 +1579,7 @@
     </row>
     <row r="17" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C17" s="9">
         <v>45723</v>
@@ -1612,7 +1636,7 @@
     </row>
     <row r="18" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18" s="9">
         <v>45723</v>
@@ -1726,7 +1750,7 @@
     </row>
     <row r="20" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C20" s="9">
         <v>45724</v>
@@ -1783,7 +1807,7 @@
     </row>
     <row r="21" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C21" s="9">
         <v>45725</v>
@@ -1840,7 +1864,7 @@
     </row>
     <row r="22" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C22" s="9">
         <v>45725</v>
@@ -1897,7 +1921,7 @@
     </row>
     <row r="23" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C23" s="9">
         <v>45726</v>
@@ -1954,7 +1978,7 @@
     </row>
     <row r="24" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C24" s="9">
         <v>45726</v>
@@ -2011,7 +2035,7 @@
     </row>
     <row r="25" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C25" s="9">
         <v>45727</v>
@@ -2125,7 +2149,7 @@
     </row>
     <row r="27" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C27" s="9">
         <v>45728</v>
@@ -2239,7 +2263,7 @@
     </row>
     <row r="29" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C29" s="9">
         <v>45729</v>
@@ -2353,7 +2377,7 @@
     </row>
     <row r="31" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C31" s="9">
         <v>45730</v>
@@ -2410,7 +2434,7 @@
     </row>
     <row r="32" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B32" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C32" s="9">
         <v>45730</v>
@@ -2467,7 +2491,7 @@
     </row>
     <row r="33" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C33" s="9">
         <v>45731</v>
@@ -2581,7 +2605,7 @@
     </row>
     <row r="35" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C35" s="9">
         <v>45732</v>
@@ -2638,7 +2662,7 @@
     </row>
     <row r="36" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C36" s="9">
         <v>45732</v>
@@ -2695,7 +2719,7 @@
     </row>
     <row r="37" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C37" s="9">
         <v>45733</v>
@@ -2752,7 +2776,7 @@
     </row>
     <row r="38" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C38" s="9">
         <v>45733</v>
@@ -2809,7 +2833,7 @@
     </row>
     <row r="39" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C39" s="9">
         <v>45734</v>
@@ -2923,7 +2947,7 @@
     </row>
     <row r="41" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C41" s="9">
         <v>45735</v>
@@ -3037,7 +3061,7 @@
     </row>
     <row r="43" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C43" s="9">
         <v>45736</v>
@@ -3151,7 +3175,7 @@
     </row>
     <row r="45" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B45" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C45" s="9">
         <v>45737</v>
@@ -3208,7 +3232,7 @@
     </row>
     <row r="46" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C46" s="9">
         <v>45737</v>
@@ -3265,7 +3289,7 @@
     </row>
     <row r="47" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B47" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C47" s="9">
         <v>45738</v>
@@ -3379,7 +3403,7 @@
     </row>
     <row r="49" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B49" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C49" s="9">
         <v>45739</v>
@@ -3493,7 +3517,7 @@
     </row>
     <row r="51" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B51" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C51" s="9">
         <v>45740</v>
@@ -3550,7 +3574,7 @@
     </row>
     <row r="52" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B52" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C52" s="9">
         <v>45740</v>
@@ -3607,7 +3631,7 @@
     </row>
     <row r="53" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B53" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C53" s="9">
         <v>45741</v>
@@ -3721,7 +3745,7 @@
     </row>
     <row r="55" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B55" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C55" s="9">
         <v>45742</v>
@@ -3835,7 +3859,7 @@
     </row>
     <row r="57" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B57" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C57" s="9">
         <v>45743</v>
@@ -3949,7 +3973,7 @@
     </row>
     <row r="59" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B59" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C59" s="9">
         <v>45744</v>
@@ -4006,7 +4030,7 @@
     </row>
     <row r="60" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C60" s="9">
         <v>45744</v>
@@ -4287,7 +4311,7 @@
     </row>
     <row r="65" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B65" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C65" s="9">
         <v>45747</v>
@@ -4344,7 +4368,7 @@
     </row>
     <row r="66" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B66" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C66" s="9">
         <v>45747</v>
@@ -4690,7 +4714,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
@@ -4704,42 +4728,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6" s="13">
         <v>0.28567129629664123</v>
@@ -4747,13 +4771,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="13">
         <v>0.28603009259313694</v>
@@ -4761,10 +4785,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
@@ -4775,13 +4799,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D9" s="13">
         <v>0.7833564814827696</v>
@@ -4789,13 +4813,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D10" s="13">
         <v>0.2988773148135806</v>
@@ -4803,10 +4827,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
@@ -4817,10 +4841,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
@@ -4831,13 +4855,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D13" s="13">
         <v>0.7822685185201408</v>
@@ -4845,10 +4869,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
         <v>20</v>
@@ -4859,13 +4883,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D15" s="13">
         <v>0.2910648148135806</v>
@@ -4873,13 +4897,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D16" s="13">
         <v>0.2697337962963502</v>
@@ -4887,13 +4911,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D17" s="13">
         <v>0.2715046296289074</v>
@@ -4901,10 +4925,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
         <v>20</v>
@@ -4915,10 +4939,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
         <v>20</v>
@@ -4929,13 +4953,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D20" s="13">
         <v>0.2767013888878864</v>
@@ -4943,13 +4967,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D21" s="13">
         <v>0.6188657407401479</v>
@@ -4957,13 +4981,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D22" s="13">
         <v>0.6477083333338669</v>
@@ -4971,13 +4995,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" t="s">
         <v>49</v>
-      </c>
-      <c r="C23" t="s">
-        <v>47</v>
       </c>
       <c r="D23" s="13">
         <v>0.6478009259262762</v>
@@ -4985,10 +5009,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
         <v>20</v>
@@ -4999,13 +5023,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D25" s="13">
         <v>0.7634953703709471</v>
@@ -5013,10 +5037,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
         <v>20</v>
@@ -5027,13 +5051,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D27" s="13">
         <v>0.2760300925910997</v>
@@ -5041,10 +5065,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
         <v>20</v>
@@ -5055,13 +5079,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D29" s="13">
         <v>0.7899537037046684</v>
@@ -5069,10 +5093,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C30" t="s">
         <v>20</v>
@@ -5083,13 +5107,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D31" s="13">
         <v>0.29118055555591127</v>
@@ -5097,10 +5121,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C32" t="s">
         <v>20</v>
@@ -5111,13 +5135,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C33" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D33" s="13">
         <v>0.26476851851839456</v>
@@ -5125,10 +5149,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C34" t="s">
         <v>20</v>
@@ -5139,13 +5163,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C35" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D35" s="13">
         <v>0.778634259258979</v>
@@ -5153,13 +5177,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C36" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D36" s="13">
         <v>0.2855787037042319</v>
@@ -5167,13 +5191,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C37" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D37" s="13">
         <v>0.28655092592453</v>
@@ -5181,13 +5205,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C38" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D38" s="13">
         <v>0.7908101851862739</v>
@@ -5195,13 +5219,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B39" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C39" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D39" s="13">
         <v>0.7909490740748879</v>
@@ -5209,13 +5233,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B40" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C40" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D40" s="13">
         <v>0.28250000000116415</v>
@@ -5223,13 +5247,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B41" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C41" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D41" s="13">
         <v>0.2826388888897782</v>
@@ -5237,13 +5261,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B42" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C42" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D42" s="13">
         <v>0.7713425925940101</v>
@@ -5251,13 +5275,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B43" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C43" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D43" s="13">
         <v>0.7854513888887595</v>
@@ -5265,13 +5289,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B44" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C44" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D44" s="13">
         <v>0.7855902777773736</v>
@@ -5279,13 +5303,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B45" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C45" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D45" s="13">
         <v>0.26836805555649335</v>
@@ -5293,13 +5317,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B46" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C46" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D46" s="13">
         <v>0.2685763888875954</v>
@@ -5307,10 +5331,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B47" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C47" t="s">
         <v>20</v>
@@ -5321,13 +5345,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B48" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C48" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D48" s="13">
         <v>0.7891435185192677</v>
@@ -5335,366 +5359,450 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C49" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D49" s="15">
-        <v>0.2687731481481481</v>
+        <v>0.26877314814919373</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D50" s="15">
-        <v>0.2689583333333333</v>
+        <v>0.2689583333340124</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C51" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D51" s="15">
-        <v>0.7794560185185185</v>
+        <v>0.7794560185175214</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D52" s="15">
-        <v>0.7795949074074074</v>
+        <v>0.7795949074061355</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D53" s="15">
-        <v>0.27011574074074074</v>
+        <v>0.27011574073912925</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C54" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D54" s="15">
-        <v>0.27020833333333333</v>
+        <v>0.2702083333315386</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C55" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D55" s="15">
-        <v>0.7663541666666667</v>
+        <v>0.7663541666661331</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D56" s="15">
-        <v>0.7797569444444444</v>
+        <v>0.7797569444446708</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C57" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D57" s="15">
-        <v>0.2772800925925926</v>
+        <v>0.2772800925922638</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D58" s="15">
-        <v>0.2700462962962963</v>
+        <v>0.27004629629664123</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D59" s="15">
-        <v>0.2708449074074074</v>
+        <v>0.2708449074089003</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D60" s="15">
-        <v>0.773900462962963</v>
+        <v>0.7739004629620467</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D61" s="15">
-        <v>0.7739930555555555</v>
+        <v>0.7739930555544561</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C62" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D62" s="15">
-        <v>0.7740393518518519</v>
+        <v>0.7740393518506608</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D63" s="15">
-        <v>0.26968749999999997</v>
+        <v>0.2696875000001455</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C64" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D64" s="15">
-        <v>0.26971064814814816</v>
+        <v>0.26971064814642887</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D65" s="15">
-        <v>0.7910416666666666</v>
+        <v>0.7910416666672972</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D66" s="15">
-        <v>0.793125</v>
+        <v>0.7931250000001455</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D67" s="15">
-        <v>0.28225694444444444</v>
+        <v>0.28225694444336114</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D68" s="15">
-        <v>0.282337962962963</v>
+        <v>0.2823379629626288</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D69" s="15">
-        <v>0.7840393518518518</v>
+        <v>0.784039351852698</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D70" s="15">
-        <v>0.7858101851851852</v>
+        <v>0.7858101851852552</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D71" s="15">
-        <v>0.27824074074074073</v>
+        <v>0.2782407407394203</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D72" s="15">
-        <v>0.2788425925925926</v>
+        <v>0.278842592593719</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C73" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D73" s="15">
-        <v>0.7794212962962963</v>
+        <v>0.7794212962980964</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D74" s="15">
-        <v>0.7825462962962962</v>
+        <v>0.7825462962973688</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D75" s="15">
+        <v>0.2571643518531346</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D76" s="15">
+        <v>0.25751157407285064</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C77" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D77" s="15">
+        <v>0.7766203703686188</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D78" s="15">
+        <v>0.7772106481497758</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D79" s="15">
+        <v>0.2644560185181035</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C80" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D80" s="15">
+        <v>0.2646759259259852</v>
       </c>
     </row>
   </sheetData>
